--- a/biology/Zoologie/Dipodomys/Dipodomys.xlsx
+++ b/biology/Zoologie/Dipodomys/Dipodomys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipodomys est un genre de petits rongeurs de la famille des Heteromyidae. Ce sont des rats-kangourous[1],[2] qui ne doivent pas être confondus avec les marsupiaux du même nom, de la famille des Potoroidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipodomys est un genre de petits rongeurs de la famille des Heteromyidae. Ce sont des rats-kangourous, qui ne doivent pas être confondus avec les marsupiaux du même nom, de la famille des Potoroidae.
 Ce genre a été décrit pour la première fois en 1841 par le zoologiste britannique John Edward Gray (1800-1875).
 </t>
         </is>
@@ -512,14 +524,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (14 nov. 2012)[3], ITIS      (14 nov. 2012)[4], NCBI  (14 nov. 2012)[5] et Catalogue of Life                                   (14 nov. 2012)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (14 nov. 2012), ITIS      (14 nov. 2012), NCBI  (14 nov. 2012) et Catalogue of Life                                   (14 nov. 2012) :
 Dipodomys agilis Gambel, 1848
 Dipodomys californicus Merriam, 1890
 Dipodomys compactus True, 1889
-Dipodomys deserti Stephens, 1887 - Rat-kangourou du Pacifique[2]
-Dipodomys elator Merriam, 1894 - Rat-kangourou du Texas[2]
+Dipodomys deserti Stephens, 1887 - Rat-kangourou du Pacifique
+Dipodomys elator Merriam, 1894 - Rat-kangourou du Texas
 Dipodomys elephantinus - espèce reconnue seulement par NCBI (selon MSW : Dipodomys venustus sous-espèce elephantinus )
 Dipodomys gravipes Huey, 1925
 Dipodomys heermanni LeConte, 1853
@@ -529,14 +543,14 @@
 Dipodomys microps (Merriam, 1904)
 Dipodomys nelsoni Merriam, 1907
 Dipodomys nitratoides Merriam, 1894
-Dipodomys ordii Woodhouse, 1853 - Rat-kangourou d'Ord[2]
+Dipodomys ordii Woodhouse, 1853 - Rat-kangourou d'Ord
 Dipodomys panamintinus (Merriam, 1894)
 Dipodomys phillipsii Gray, 1841
 Dipodomys simulans Merriam, 1904
 Dipodomys spectabilis Merriam, 1890
 Dipodomys stephensi (Merriam, 1907)
 Dipodomys venustus (Merriam, 1904)
-Selon Paleobiology Database                   (14 nov. 2012)[7] :
+Selon Paleobiology Database                   (14 nov. 2012) :
 Dipodomys agilis
 Dipodomys compactus
 Dipodomys deserti
